--- a/Teams/Leicester City_stats.xlsx
+++ b/Teams/Leicester City_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22-082</t>
+          <t>22-083</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20-099</t>
+          <t>20-100</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27-244</t>
+          <t>27-245</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-002</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-166</t>
+          <t>20-167</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14828,7 +14828,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15644,7 +15644,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15746,7 +15746,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15950,7 +15950,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16052,7 +16052,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17582,7 +17582,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17894,7 +17894,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -18206,7 +18206,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18986,7 +18986,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19959,7 +19959,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20040,7 +20040,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20202,7 +20202,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20283,7 +20283,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20364,7 +20364,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20445,7 +20445,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20607,7 +20607,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20688,7 +20688,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21093,7 +21093,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21660,7 +21660,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22742,7 +22742,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22823,7 +22823,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22985,7 +22985,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23147,7 +23147,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23471,7 +23471,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23552,7 +23552,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23714,7 +23714,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23957,7 +23957,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24198,7 +24198,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24358,7 +24358,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24912,7 +24912,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25011,7 +25011,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25209,7 +25209,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25308,7 +25308,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25407,7 +25407,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25506,7 +25506,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25605,7 +25605,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -25902,7 +25902,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26001,7 +26001,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26294,7 +26294,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26492,7 +26492,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26686,7 +26686,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26785,7 +26785,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26884,7 +26884,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26983,7 +26983,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27280,7 +27280,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -28026,7 +28026,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-025</t>
+          <t>27-026</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38-068</t>
+          <t>38-069</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28260,7 +28260,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22-094</t>
+          <t>22-095</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26-351</t>
+          <t>26-352</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28494,7 +28494,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-252</t>
+          <t>24-253</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-094</t>
+          <t>28-095</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-314</t>
+          <t>20-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-021</t>
+          <t>26-022</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-046</t>
+          <t>29-047</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -29079,7 +29079,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32-229</t>
+          <t>32-230</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29196,7 +29196,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29313,7 +29313,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-293</t>
+          <t>26-294</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29430,7 +29430,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-087</t>
+          <t>20-088</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29547,7 +29547,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-250</t>
+          <t>23-251</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29664,7 +29664,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>32-023</t>
+          <t>32-024</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29781,7 +29781,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-185</t>
+          <t>24-186</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32-046</t>
+          <t>32-047</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -30015,7 +30015,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-012</t>
+          <t>21-013</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24-091</t>
+          <t>24-092</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -30249,7 +30249,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-118</t>
+          <t>23-119</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30366,7 +30366,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-283</t>
+          <t>23-284</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30600,7 +30600,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-165</t>
+          <t>31-166</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30717,7 +30717,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31-271</t>
+          <t>31-272</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -30834,7 +30834,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27-170</t>
+          <t>27-171</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -30951,7 +30951,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25-304</t>
+          <t>25-305</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -31068,7 +31068,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -31185,7 +31185,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20-045</t>
+          <t>20-046</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -31302,7 +31302,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22-082</t>
+          <t>22-083</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20-099</t>
+          <t>20-100</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31428,7 +31428,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27-244</t>
+          <t>27-245</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31491,7 +31491,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-002</t>
+          <t>21-003</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-166</t>
+          <t>20-167</t>
         </is>
       </c>
       <c r="F36" t="n">

--- a/Teams/Leicester City_stats.xlsx
+++ b/Teams/Leicester City_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3306,7 +3306,9 @@
       <c r="N35" t="n">
         <v>53</v>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>31773</v>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Jamie Vardy</t>
@@ -3942,7 +3944,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4013,7 +4015,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4084,7 +4086,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4155,7 +4157,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4226,7 +4228,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4297,7 +4299,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4368,7 +4370,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4439,7 +4441,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4510,7 +4512,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4581,7 +4583,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4652,7 +4654,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4723,7 +4725,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4794,7 +4796,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4865,7 +4867,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4936,7 +4938,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5007,7 +5009,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5078,7 +5080,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5149,7 +5151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5220,7 +5222,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5291,7 +5293,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5362,7 +5364,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5433,7 +5435,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5504,7 +5506,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5573,7 +5575,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5642,7 +5644,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5711,7 +5713,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5782,7 +5784,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5853,7 +5855,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6069,12 +6071,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -6298,7 +6300,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6405,7 +6407,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6512,7 +6514,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6619,7 +6621,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6726,7 +6728,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6833,7 +6835,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6940,7 +6942,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7047,7 +7049,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7154,7 +7156,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7261,7 +7263,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7368,7 +7370,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7475,7 +7477,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7582,7 +7584,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7689,7 +7691,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7796,7 +7798,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7903,7 +7905,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8010,7 +8012,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8117,7 +8119,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8224,7 +8226,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8331,7 +8333,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8438,7 +8440,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8545,7 +8547,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8652,7 +8654,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8759,7 +8761,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8866,7 +8868,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8973,7 +8975,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9080,7 +9082,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9187,7 +9189,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9294,7 +9296,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22-086</t>
+          <t>22-089</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9347,7 +9349,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20-103</t>
+          <t>20-106</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9400,7 +9402,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27-248</t>
+          <t>27-251</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9453,7 +9455,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-006</t>
+          <t>21-009</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9506,7 +9508,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-170</t>
+          <t>20-173</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9751,10 +9753,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -9932,7 +9934,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10006,7 +10008,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10080,7 +10082,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10152,7 +10154,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10226,7 +10228,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10290,7 +10292,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10364,7 +10366,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10438,7 +10440,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10510,7 +10512,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10584,7 +10586,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10658,7 +10660,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10732,7 +10734,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10806,7 +10808,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10880,7 +10882,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10954,7 +10956,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11018,7 +11020,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11092,7 +11094,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11166,7 +11168,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11240,7 +11242,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11304,7 +11306,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11378,7 +11380,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11450,7 +11452,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11524,7 +11526,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11598,7 +11600,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11662,7 +11664,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11726,7 +11728,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11800,7 +11802,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -11864,7 +11866,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12280,7 +12282,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12372,7 +12374,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12464,7 +12466,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12556,7 +12558,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12648,7 +12650,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12740,7 +12742,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12832,7 +12834,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12924,7 +12926,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13016,7 +13018,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13108,7 +13110,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13200,7 +13202,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13292,7 +13294,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13384,7 +13386,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13476,7 +13478,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13568,7 +13570,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13660,7 +13662,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13752,7 +13754,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13844,7 +13846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13936,7 +13938,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14028,7 +14030,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14120,7 +14122,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14212,7 +14214,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14304,7 +14306,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14396,7 +14398,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14488,7 +14490,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14580,7 +14582,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14672,7 +14674,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -14762,7 +14764,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15185,7 +15187,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15253,7 +15255,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15321,7 +15323,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15389,7 +15391,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15457,7 +15459,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15525,7 +15527,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15593,7 +15595,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15661,7 +15663,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15729,7 +15731,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15797,7 +15799,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15865,7 +15867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15933,7 +15935,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16001,7 +16003,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16069,7 +16071,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16137,7 +16139,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16205,7 +16207,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16273,7 +16275,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16341,7 +16343,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16409,7 +16411,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16477,7 +16479,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16545,7 +16547,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16613,7 +16615,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16681,7 +16683,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16749,7 +16751,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16817,7 +16819,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16885,7 +16887,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16953,7 +16955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17021,7 +17023,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -17384,7 +17386,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17455,7 +17457,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17526,7 +17528,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17597,7 +17599,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17668,7 +17670,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17739,7 +17741,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17810,7 +17812,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17881,7 +17883,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17952,7 +17954,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18023,7 +18025,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18094,7 +18096,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18165,7 +18167,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18236,7 +18238,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18307,7 +18309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18378,7 +18380,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18449,7 +18451,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18520,7 +18522,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18591,7 +18593,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18662,7 +18664,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18733,7 +18735,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18804,7 +18806,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18875,7 +18877,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18946,7 +18948,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19017,7 +19019,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19088,7 +19090,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19159,7 +19161,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19230,7 +19232,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19301,7 +19303,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19670,7 +19672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19741,7 +19743,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19812,7 +19814,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19883,7 +19885,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19954,7 +19956,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20025,7 +20027,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20096,7 +20098,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20167,7 +20169,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20238,7 +20240,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20309,7 +20311,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20380,7 +20382,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20451,7 +20453,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20522,7 +20524,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20593,7 +20595,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20664,7 +20666,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20735,7 +20737,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20806,7 +20808,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20877,7 +20879,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20948,7 +20950,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21019,7 +21021,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21090,7 +21092,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21161,7 +21163,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21232,7 +21234,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21303,7 +21305,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21372,7 +21374,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21443,7 +21445,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21514,7 +21516,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21583,7 +21585,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21989,7 +21991,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22078,7 +22080,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22167,7 +22169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22256,7 +22258,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22345,7 +22347,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22434,7 +22436,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22523,7 +22525,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22612,7 +22614,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22701,7 +22703,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22790,7 +22792,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22879,7 +22881,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22968,7 +22970,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23057,7 +23059,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23146,7 +23148,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23231,7 +23233,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23320,7 +23322,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23409,7 +23411,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23498,7 +23500,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23587,7 +23589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23672,7 +23674,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23761,7 +23763,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23850,7 +23852,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23939,7 +23941,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24028,7 +24030,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24117,7 +24119,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24206,7 +24208,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24295,7 +24297,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24384,7 +24386,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24654,12 +24656,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -24883,7 +24885,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-029</t>
+          <t>27-032</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -24990,7 +24992,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38-072</t>
+          <t>38-075</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25097,7 +25099,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22-098</t>
+          <t>22-101</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25204,7 +25206,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26-355</t>
+          <t>26-358</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25311,7 +25313,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-256</t>
+          <t>24-259</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25418,7 +25420,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-098</t>
+          <t>28-101</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25525,7 +25527,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-318</t>
+          <t>20-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25632,7 +25634,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-025</t>
+          <t>26-028</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25739,7 +25741,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-050</t>
+          <t>29-053</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25846,7 +25848,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>32-233</t>
+          <t>32-236</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -25953,7 +25955,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26060,7 +26062,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-297</t>
+          <t>26-300</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -26167,7 +26169,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-091</t>
+          <t>20-094</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26274,7 +26276,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-254</t>
+          <t>23-257</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26381,7 +26383,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32-027</t>
+          <t>32-030</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26488,7 +26490,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-192</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26595,7 +26597,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>32-050</t>
+          <t>32-053</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26702,7 +26704,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-016</t>
+          <t>21-019</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26809,7 +26811,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-095</t>
+          <t>24-098</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26916,7 +26918,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-122</t>
+          <t>23-125</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -27023,7 +27025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-290</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -27130,7 +27132,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -27237,7 +27239,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-169</t>
+          <t>31-172</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27344,7 +27346,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31-275</t>
+          <t>31-278</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27451,7 +27453,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27-174</t>
+          <t>27-177</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -27558,7 +27560,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25-308</t>
+          <t>25-311</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27665,7 +27667,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27772,7 +27774,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20-049</t>
+          <t>20-052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -27879,7 +27881,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22-086</t>
+          <t>22-089</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27932,7 +27934,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20-103</t>
+          <t>20-106</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -27985,7 +27987,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27-248</t>
+          <t>27-251</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28038,7 +28040,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-006</t>
+          <t>21-009</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -28091,7 +28093,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-170</t>
+          <t>20-173</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -28336,10 +28338,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
